--- a/ess-dive/data_inventory.xlsx
+++ b/ess-dive/data_inventory.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl-my.sharepoint.com/personal/peter_regier_pnnl_gov/Documents/Documents/GitHub/peterregier/d50_computer_vision/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl-my.sharepoint.com/personal/peter_regier_pnnl_gov/Documents/Documents/GitHub/peterregier/d50_computer_vision/ess-dive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{66DBDA81-B906-2548-979E-95F8B869DD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48F1911C-2916-BF46-BEF9-88C6FFAB60E0}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{66DBDA81-B906-2548-979E-95F8B869DD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27148CCD-DF79-CB47-8389-9B61EE345A51}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="800" windowWidth="32040" windowHeight="19960" activeTab="1" xr2:uid="{BF9EDC44-8173-C24D-B2E0-2D520D202F9D}"/>
+    <workbookView xWindow="1920" yWindow="800" windowWidth="32040" windowHeight="19960" xr2:uid="{BF9EDC44-8173-C24D-B2E0-2D520D202F9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="76">
   <si>
     <t>Path</t>
   </si>
@@ -151,9 +150,6 @@
   </si>
   <si>
     <t>RC2_all_D50.csv</t>
-  </si>
-  <si>
-    <t>d50 estimates for NEXSS / Abeshu across YRB</t>
   </si>
   <si>
     <t>data/RC2-Spatial-Study-2021-D50-Quadrat-Photos</t>
@@ -329,10 +325,10 @@
     <t>Confirm this matches ess-dive dataset</t>
   </si>
   <si>
-    <t>Dataset name</t>
-  </si>
-  <si>
-    <t>Script</t>
+    <t>d50 estimates for NEXSS (pers comm JV) / Abeshu (https://zenodo.org/record/4921987#.Y87Vh-zML6Y) across YRB</t>
+  </si>
+  <si>
+    <t>Asked AG about NEXSS</t>
   </si>
 </sst>
 </file>
@@ -414,8 +410,12 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -703,7 +703,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -713,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E5A6E0-DFEB-7843-954A-EB1D9E1A1993}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -743,13 +743,13 @@
         <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -769,7 +769,7 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -789,7 +789,7 @@
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -806,7 +806,7 @@
         <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -826,7 +826,7 @@
         <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -843,7 +843,7 @@
         <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -863,7 +863,7 @@
         <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -883,7 +883,7 @@
         <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -903,7 +903,7 @@
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -911,19 +911,19 @@
         <v>36</v>
       </c>
       <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
         <v>71</v>
-      </c>
-      <c r="C10" t="s">
-        <v>72</v>
       </c>
       <c r="D10" t="s">
         <v>31</v>
       </c>
       <c r="E10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" t="s">
         <v>73</v>
-      </c>
-      <c r="H10" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -940,36 +940,36 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
         <v>39</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -977,74 +977,74 @@
         <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
       </c>
       <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
         <v>44</v>
       </c>
-      <c r="E13" t="s">
-        <v>45</v>
-      </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
@@ -1052,7 +1052,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1061,30 +1061,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB0D86C-D24D-A440-B3BD-3790A60E5FDE}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>